--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.0949001630593</v>
+        <v>43.91073733333334</v>
       </c>
       <c r="H2">
-        <v>40.0949001630593</v>
+        <v>131.732212</v>
       </c>
       <c r="I2">
-        <v>0.3816561845189252</v>
+        <v>0.4010337406460291</v>
       </c>
       <c r="J2">
-        <v>0.3816561845189252</v>
+        <v>0.4010337406460291</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.9390695805883</v>
+        <v>22.529461</v>
       </c>
       <c r="N2">
-        <v>19.9390695805883</v>
+        <v>67.58838299999999</v>
       </c>
       <c r="O2">
-        <v>0.362104858882478</v>
+        <v>0.3889626001872417</v>
       </c>
       <c r="P2">
-        <v>0.362104858882478</v>
+        <v>0.3889626001872417</v>
       </c>
       <c r="Q2">
-        <v>799.4550041779805</v>
+        <v>989.2852442325773</v>
       </c>
       <c r="R2">
-        <v>799.4550041779805</v>
+        <v>8903.567198093195</v>
       </c>
       <c r="S2">
-        <v>0.1381995588368504</v>
+        <v>0.1559871265244954</v>
       </c>
       <c r="T2">
-        <v>0.1381995588368504</v>
+        <v>0.1559871265244954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.0949001630593</v>
+        <v>43.91073733333334</v>
       </c>
       <c r="H3">
-        <v>40.0949001630593</v>
+        <v>131.732212</v>
       </c>
       <c r="I3">
-        <v>0.3816561845189252</v>
+        <v>0.4010337406460291</v>
       </c>
       <c r="J3">
-        <v>0.3816561845189252</v>
+        <v>0.4010337406460291</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.1649832095202</v>
+        <v>23.19370566666667</v>
       </c>
       <c r="N3">
-        <v>23.1649832095202</v>
+        <v>69.58111700000001</v>
       </c>
       <c r="O3">
-        <v>0.4206892875415099</v>
+        <v>0.4004305324518962</v>
       </c>
       <c r="P3">
-        <v>0.4206892875415099</v>
+        <v>0.4004305324518962</v>
       </c>
       <c r="Q3">
-        <v>928.7976890646574</v>
+        <v>1018.452717315645</v>
       </c>
       <c r="R3">
-        <v>928.7976890646574</v>
+        <v>9166.074455840806</v>
       </c>
       <c r="S3">
-        <v>0.1605586683510777</v>
+        <v>0.1605861542980651</v>
       </c>
       <c r="T3">
-        <v>0.1605586683510777</v>
+        <v>0.1605861542980651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.0949001630593</v>
+        <v>43.91073733333334</v>
       </c>
       <c r="H4">
-        <v>40.0949001630593</v>
+        <v>131.732212</v>
       </c>
       <c r="I4">
-        <v>0.3816561845189252</v>
+        <v>0.4010337406460291</v>
       </c>
       <c r="J4">
-        <v>0.3816561845189252</v>
+        <v>0.4010337406460291</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9602996798471</v>
+        <v>12.19875433333333</v>
       </c>
       <c r="N4">
-        <v>11.9602996798471</v>
+        <v>36.596263</v>
       </c>
       <c r="O4">
-        <v>0.2172058535760122</v>
+        <v>0.2106068673608621</v>
       </c>
       <c r="P4">
-        <v>0.2172058535760122</v>
+        <v>0.2106068673608621</v>
       </c>
       <c r="Q4">
-        <v>479.5470215837396</v>
+        <v>535.6562973248618</v>
       </c>
       <c r="R4">
-        <v>479.5470215837396</v>
+        <v>4820.906675923756</v>
       </c>
       <c r="S4">
-        <v>0.08289795733099715</v>
+        <v>0.08446045982346861</v>
       </c>
       <c r="T4">
-        <v>0.08289795733099715</v>
+        <v>0.08446045982346863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.5297307386562</v>
+        <v>30.65522666666666</v>
       </c>
       <c r="H5">
-        <v>30.5297307386562</v>
+        <v>91.96567999999999</v>
       </c>
       <c r="I5">
-        <v>0.2906070472982721</v>
+        <v>0.2799720744190927</v>
       </c>
       <c r="J5">
-        <v>0.2906070472982721</v>
+        <v>0.2799720744190927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9390695805883</v>
+        <v>22.529461</v>
       </c>
       <c r="N5">
-        <v>19.9390695805883</v>
+        <v>67.58838299999999</v>
       </c>
       <c r="O5">
-        <v>0.362104858882478</v>
+        <v>0.3889626001872417</v>
       </c>
       <c r="P5">
-        <v>0.362104858882478</v>
+        <v>0.3889626001872417</v>
       </c>
       <c r="Q5">
-        <v>608.7344254746913</v>
+        <v>690.6457336328266</v>
       </c>
       <c r="R5">
-        <v>608.7344254746913</v>
+        <v>6215.811602695439</v>
       </c>
       <c r="S5">
-        <v>0.1052302238521944</v>
+        <v>0.1088986660458662</v>
       </c>
       <c r="T5">
-        <v>0.1052302238521944</v>
+        <v>0.1088986660458662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.5297307386562</v>
+        <v>30.65522666666666</v>
       </c>
       <c r="H6">
-        <v>30.5297307386562</v>
+        <v>91.96567999999999</v>
       </c>
       <c r="I6">
-        <v>0.2906070472982721</v>
+        <v>0.2799720744190927</v>
       </c>
       <c r="J6">
-        <v>0.2906070472982721</v>
+        <v>0.2799720744190927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.1649832095202</v>
+        <v>23.19370566666667</v>
       </c>
       <c r="N6">
-        <v>23.1649832095202</v>
+        <v>69.58111700000001</v>
       </c>
       <c r="O6">
-        <v>0.4206892875415099</v>
+        <v>0.4004305324518962</v>
       </c>
       <c r="P6">
-        <v>0.4206892875415099</v>
+        <v>0.4004305324518962</v>
       </c>
       <c r="Q6">
-        <v>707.2206999521436</v>
+        <v>711.0083044516178</v>
       </c>
       <c r="R6">
-        <v>707.2206999521436</v>
+        <v>6399.07474006456</v>
       </c>
       <c r="S6">
-        <v>0.122255271682452</v>
+        <v>0.1121093668312992</v>
       </c>
       <c r="T6">
-        <v>0.122255271682452</v>
+        <v>0.1121093668312992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.5297307386562</v>
+        <v>30.65522666666666</v>
       </c>
       <c r="H7">
-        <v>30.5297307386562</v>
+        <v>91.96567999999999</v>
       </c>
       <c r="I7">
-        <v>0.2906070472982721</v>
+        <v>0.2799720744190927</v>
       </c>
       <c r="J7">
-        <v>0.2906070472982721</v>
+        <v>0.2799720744190927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.9602996798471</v>
+        <v>12.19875433333333</v>
       </c>
       <c r="N7">
-        <v>11.9602996798471</v>
+        <v>36.596263</v>
       </c>
       <c r="O7">
-        <v>0.2172058535760122</v>
+        <v>0.2106068673608621</v>
       </c>
       <c r="P7">
-        <v>0.2172058535760122</v>
+        <v>0.2106068673608621</v>
       </c>
       <c r="Q7">
-        <v>365.1447287793679</v>
+        <v>373.9555791393155</v>
       </c>
       <c r="R7">
-        <v>365.1447287793679</v>
+        <v>3365.60021225384</v>
       </c>
       <c r="S7">
-        <v>0.06312155176362573</v>
+        <v>0.05896404154192727</v>
       </c>
       <c r="T7">
-        <v>0.06312155176362573</v>
+        <v>0.05896404154192728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.4303945096993</v>
+        <v>34.92790866666667</v>
       </c>
       <c r="H8">
-        <v>34.4303945096993</v>
+        <v>104.783726</v>
       </c>
       <c r="I8">
-        <v>0.3277367681828027</v>
+        <v>0.3189941849348781</v>
       </c>
       <c r="J8">
-        <v>0.3277367681828027</v>
+        <v>0.3189941849348781</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.9390695805883</v>
+        <v>22.529461</v>
       </c>
       <c r="N8">
-        <v>19.9390695805883</v>
+        <v>67.58838299999999</v>
       </c>
       <c r="O8">
-        <v>0.362104858882478</v>
+        <v>0.3889626001872417</v>
       </c>
       <c r="P8">
-        <v>0.362104858882478</v>
+        <v>0.3889626001872417</v>
       </c>
       <c r="Q8">
-        <v>686.5100318159997</v>
+        <v>786.9069561172286</v>
       </c>
       <c r="R8">
-        <v>686.5100318159997</v>
+        <v>7082.162605055058</v>
       </c>
       <c r="S8">
-        <v>0.1186750761934332</v>
+        <v>0.12407680761688</v>
       </c>
       <c r="T8">
-        <v>0.1186750761934332</v>
+        <v>0.12407680761688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.4303945096993</v>
+        <v>34.92790866666667</v>
       </c>
       <c r="H9">
-        <v>34.4303945096993</v>
+        <v>104.783726</v>
       </c>
       <c r="I9">
-        <v>0.3277367681828027</v>
+        <v>0.3189941849348781</v>
       </c>
       <c r="J9">
-        <v>0.3277367681828027</v>
+        <v>0.3189941849348781</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.1649832095202</v>
+        <v>23.19370566666667</v>
       </c>
       <c r="N9">
-        <v>23.1649832095202</v>
+        <v>69.58111700000001</v>
       </c>
       <c r="O9">
-        <v>0.4206892875415099</v>
+        <v>0.4004305324518962</v>
       </c>
       <c r="P9">
-        <v>0.4206892875415099</v>
+        <v>0.4004305324518962</v>
       </c>
       <c r="Q9">
-        <v>797.5795107143408</v>
+        <v>810.1076331668826</v>
       </c>
       <c r="R9">
-        <v>797.5795107143408</v>
+        <v>7290.968698501943</v>
       </c>
       <c r="S9">
-        <v>0.1378753475079803</v>
+        <v>0.1277350113225319</v>
       </c>
       <c r="T9">
-        <v>0.1378753475079803</v>
+        <v>0.1277350113225319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.4303945096993</v>
+        <v>34.92790866666667</v>
       </c>
       <c r="H10">
-        <v>34.4303945096993</v>
+        <v>104.783726</v>
       </c>
       <c r="I10">
-        <v>0.3277367681828027</v>
+        <v>0.3189941849348781</v>
       </c>
       <c r="J10">
-        <v>0.3277367681828027</v>
+        <v>0.3189941849348781</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9602996798471</v>
+        <v>12.19875433333333</v>
       </c>
       <c r="N10">
-        <v>11.9602996798471</v>
+        <v>36.596263</v>
       </c>
       <c r="O10">
-        <v>0.2172058535760122</v>
+        <v>0.2106068673608621</v>
       </c>
       <c r="P10">
-        <v>0.2172058535760122</v>
+        <v>0.2106068673608621</v>
       </c>
       <c r="Q10">
-        <v>411.7978364313659</v>
+        <v>426.0769772017709</v>
       </c>
       <c r="R10">
-        <v>411.7978364313659</v>
+        <v>3834.692794815938</v>
       </c>
       <c r="S10">
-        <v>0.07118634448138929</v>
+        <v>0.06718236599546619</v>
       </c>
       <c r="T10">
-        <v>0.07118634448138929</v>
+        <v>0.0671823659954662</v>
       </c>
     </row>
   </sheetData>
